--- a/app/static/csv/eeg.xlsx
+++ b/app/static/csv/eeg.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CBC3A41B-29C9-4BA0-AEDE-CCFF803863D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22836EE4-EE70-4650-875F-87B915195077}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="14400" windowHeight="7590"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eeg" sheetId="1" r:id="rId1"/>
@@ -343,23 +343,23 @@
     <t xml:space="preserve">Where will the EEG test take place? </t>
   </si>
   <si>
-    <t xml:space="preserve">EEG tests will occur at the Pieter de la Court building of Leiden University (Wassenaarseweg 52, 2333 AK Leiden). </t>
-  </si>
-  <si>
     <t xml:space="preserve">Waar zal de EEG test plaatsvinden? </t>
-  </si>
-  <si>
-    <t>De EEG metingen zullen plaatsvinden in het Pieder de la Court gebouw van Universiteit Leiden plaatsvinden (Wassenaarseweg 52, 2333 AK Leiden). </t>
   </si>
   <si>
     <t xml:space="preserve">Probeer uw smartphone opgeladen te houden en breng ook uw eigen 
 oplader mee om er zeker van tte zijn dat u genoeg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEG tests will occur at the &lt;a href=\contact&gt;Pieter de la Court building of Leiden University (Wassenaarseweg 52, 2333 AK Leiden)&lt;/a&gt;. </t>
+  </si>
+  <si>
+    <t>De EEG metingen zullen plaatsvinden in het  &lt;a href=/contact&gt;Pieder de la Court gebouw van Universiteit Leiden plaatsvinden (Wassenaarseweg 52, 2333 AK Leiden)&lt;/a&gt;. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1234,19 +1234,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B35" sqref="B20:B35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="110.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="232" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1441,10 +1441,10 @@
         <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1562,18 +1562,18 @@
         <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>84</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/csv/eeg.xlsx
+++ b/app/static/csv/eeg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22836EE4-EE70-4650-875F-87B915195077}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFB973D-999C-4431-8952-70BF4FEAC9A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>tag</t>
   </si>
@@ -354,6 +354,15 @@
   </si>
   <si>
     <t>De EEG metingen zullen plaatsvinden in het  &lt;a href=/contact&gt;Pieder de la Court gebouw van Universiteit Leiden plaatsvinden (Wassenaarseweg 52, 2333 AK Leiden)&lt;/a&gt;. </t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>Due to the current regulations implemented in regard to the COVID-19 crisis, we will only schedule EGG experiments once it is permitted to do so</t>
+  </si>
+  <si>
+    <t>Vanwege de huidige geïmplementeerde regels met betrekking tot de COVID-19 crisis, zullen wij alleen EEG experimenten inroosteren als dit weer is toegestaan.</t>
   </si>
 </sst>
 </file>
@@ -1235,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1576,6 +1585,17 @@
         <v>89</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/static/csv/eeg.xlsx
+++ b/app/static/csv/eeg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFB973D-999C-4431-8952-70BF4FEAC9A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24288497-930D-49D6-B234-95EC396A7729}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,10 +359,10 @@
     <t>p9</t>
   </si>
   <si>
-    <t>Due to the current regulations implemented in regard to the COVID-19 crisis, we will only schedule EGG experiments once it is permitted to do so</t>
-  </si>
-  <si>
     <t>Vanwege de huidige geïmplementeerde regels met betrekking tot de COVID-19 crisis, zullen wij alleen EEG experimenten inroosteren als dit weer is toegestaan.</t>
+  </si>
+  <si>
+    <t>Due to the current regulations implemented in regard to the COVID-19 crisis, we will only schedule EEG experiments once it is permitted to do so</t>
   </si>
 </sst>
 </file>
@@ -1246,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1590,10 +1590,10 @@
         <v>90</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
         <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/csv/eeg.xlsx
+++ b/app/static/csv/eeg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24288497-930D-49D6-B234-95EC396A7729}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3C2E39-7395-4BD0-B425-A8E97E2B19DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,23 +346,23 @@
     <t xml:space="preserve">Waar zal de EEG test plaatsvinden? </t>
   </si>
   <si>
+    <t xml:space="preserve">EEG tests will occur at the &lt;a href=\contact&gt;Pieter de la Court building of Leiden University (Wassenaarseweg 52, 2333 AK Leiden)&lt;/a&gt;. </t>
+  </si>
+  <si>
+    <t>De EEG metingen zullen plaatsvinden in het  &lt;a href=/contact&gt;Pieder de la Court gebouw van Universiteit Leiden plaatsvinden (Wassenaarseweg 52, 2333 AK Leiden)&lt;/a&gt;. </t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>Vanwege de huidige geïmplementeerde regels met betrekking tot de COVID-19 crisis, zullen wij alleen EEG experimenten inroosteren als dit weer is toegestaan.</t>
+  </si>
+  <si>
+    <t>Due to the current regulations implemented in regard to the COVID-19 crisis, we will only schedule EEG experiments once it is permitted to do so</t>
+  </si>
+  <si>
     <t xml:space="preserve">Probeer uw smartphone opgeladen te houden en breng ook uw eigen 
-oplader mee om er zeker van tte zijn dat u genoeg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEG tests will occur at the &lt;a href=\contact&gt;Pieter de la Court building of Leiden University (Wassenaarseweg 52, 2333 AK Leiden)&lt;/a&gt;. </t>
-  </si>
-  <si>
-    <t>De EEG metingen zullen plaatsvinden in het  &lt;a href=/contact&gt;Pieder de la Court gebouw van Universiteit Leiden plaatsvinden (Wassenaarseweg 52, 2333 AK Leiden)&lt;/a&gt;. </t>
-  </si>
-  <si>
-    <t>p9</t>
-  </si>
-  <si>
-    <t>Vanwege de huidige geïmplementeerde regels met betrekking tot de COVID-19 crisis, zullen wij alleen EEG experimenten inroosteren als dit weer is toegestaan.</t>
-  </si>
-  <si>
-    <t>Due to the current regulations implemented in regard to the COVID-19 crisis, we will only schedule EEG experiments once it is permitted to do so</t>
+oplader mee om er zeker van te zijn dat u genoeg </t>
   </si>
 </sst>
 </file>
@@ -1246,13 +1246,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="110.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1387,7 +1388,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1579,21 +1580,21 @@
         <v>84</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
         <v>90</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/csv/eeg.xlsx
+++ b/app/static/csv/eeg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ruchella\agestudy\app\static\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\rushkock\agestudyenv\agestudy\app\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3C2E39-7395-4BD0-B425-A8E97E2B19DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71432007-A240-485C-9382-343BD90F55B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eeg" sheetId="1" r:id="rId1"/>
@@ -285,9 +285,6 @@
     <t xml:space="preserve">Als u van plan bent om uw haar thuis te wassen na de EEG meting, neem dan alstublieft een haarnetje mee </t>
   </si>
   <si>
-    <t xml:space="preserve"> zodat u uw haar kan bedekken met een beschermend haarnetje – en er modieus uit blijft zijn in het openbaar.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Breng geen enkele vorm van haargel of -spray aan totdat we klaar zijn! </t>
   </si>
   <si>
@@ -363,6 +360,9 @@
   <si>
     <t xml:space="preserve">Probeer uw smartphone opgeladen te houden en breng ook uw eigen 
 oplader mee om er zeker van te zijn dat u genoeg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zodat u uw haar kan bedekken met een beschermend haarnetje – en er modieus uit blijft zien in het openbaar.</t>
   </si>
 </sst>
 </file>
@@ -1247,16 +1247,16 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="110.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1308,10 +1308,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1319,10 +1319,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1330,10 +1330,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1341,10 +1341,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1352,10 +1352,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1363,10 +1363,10 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1374,10 +1374,10 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1385,10 +1385,10 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1396,10 +1396,10 @@
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1407,10 +1407,10 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1418,10 +1418,10 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1429,10 +1429,10 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1451,10 +1451,10 @@
         <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1484,10 +1484,10 @@
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1495,10 +1495,10 @@
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1506,10 +1506,10 @@
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1539,10 +1539,10 @@
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1564,37 +1564,37 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="4" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
         <v>89</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
